--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H2">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I2">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J2">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N2">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q2">
-        <v>22.14514006766053</v>
+        <v>91.20841753307677</v>
       </c>
       <c r="R2">
-        <v>22.14514006766053</v>
+        <v>820.875757797691</v>
       </c>
       <c r="S2">
-        <v>1.594374316959927E-05</v>
+        <v>5.822317651948459E-05</v>
       </c>
       <c r="T2">
-        <v>1.594374316959927E-05</v>
+        <v>5.822317651948461E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H3">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I3">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J3">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N3">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q3">
-        <v>439.0073262899381</v>
+        <v>1460.61572377648</v>
       </c>
       <c r="R3">
-        <v>439.0073262899381</v>
+        <v>13145.54151398832</v>
       </c>
       <c r="S3">
-        <v>0.0003160702546271443</v>
+        <v>0.0009323885822460666</v>
       </c>
       <c r="T3">
-        <v>0.0003160702546271443</v>
+        <v>0.000932388582246067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H4">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I4">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J4">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N4">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q4">
-        <v>406.404351623065</v>
+        <v>1984.639914653831</v>
       </c>
       <c r="R4">
-        <v>406.404351623065</v>
+        <v>17861.75923188448</v>
       </c>
       <c r="S4">
-        <v>0.000292597228352965</v>
+        <v>0.00126690105150218</v>
       </c>
       <c r="T4">
-        <v>0.000292597228352965</v>
+        <v>0.001266901051502181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H5">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I5">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J5">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N5">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q5">
-        <v>389.5955520138196</v>
+        <v>1290.970331354976</v>
       </c>
       <c r="R5">
-        <v>389.5955520138196</v>
+        <v>11618.73298219478</v>
       </c>
       <c r="S5">
-        <v>0.0002804954677345965</v>
+        <v>0.0008240949192725535</v>
       </c>
       <c r="T5">
-        <v>0.0002804954677345965</v>
+        <v>0.0008240949192725538</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H6">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I6">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J6">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N6">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O6">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P6">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q6">
-        <v>1735.251042960419</v>
+        <v>5808.21653980532</v>
       </c>
       <c r="R6">
-        <v>1735.251042960419</v>
+        <v>52273.94885824789</v>
       </c>
       <c r="S6">
-        <v>0.001249321380637487</v>
+        <v>0.003707693061748787</v>
       </c>
       <c r="T6">
-        <v>0.001249321380637487</v>
+        <v>0.003707693061748788</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H7">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I7">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J7">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N7">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O7">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P7">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q7">
-        <v>142.0938289647995</v>
+        <v>484.2637206898096</v>
       </c>
       <c r="R7">
-        <v>142.0938289647995</v>
+        <v>4358.373486208287</v>
       </c>
       <c r="S7">
-        <v>0.0001023026952224224</v>
+        <v>0.000309131249662128</v>
       </c>
       <c r="T7">
-        <v>0.0001023026952224224</v>
+        <v>0.0003091312496621281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H8">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I8">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J8">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N8">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q8">
-        <v>8754.976333892406</v>
+        <v>11134.63768637811</v>
       </c>
       <c r="R8">
-        <v>8754.976333892406</v>
+        <v>100211.739177403</v>
       </c>
       <c r="S8">
-        <v>0.006303283415549272</v>
+        <v>0.007107830538331555</v>
       </c>
       <c r="T8">
-        <v>0.006303283415549272</v>
+        <v>0.007107830538331557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H9">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I9">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J9">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N9">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q9">
-        <v>173559.4690451568</v>
+        <v>178310.5915348229</v>
       </c>
       <c r="R9">
-        <v>173559.4690451568</v>
+        <v>1604795.323813406</v>
       </c>
       <c r="S9">
-        <v>0.1249568795073477</v>
+        <v>0.1138251197315285</v>
       </c>
       <c r="T9">
-        <v>0.1249568795073477</v>
+        <v>0.1138251197315286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H10">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I10">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J10">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N10">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q10">
-        <v>160670.0372894369</v>
+        <v>242282.9710819273</v>
       </c>
       <c r="R10">
-        <v>160670.0372894369</v>
+        <v>2180546.739737345</v>
       </c>
       <c r="S10">
-        <v>0.1156769296453288</v>
+        <v>0.1546620868392165</v>
       </c>
       <c r="T10">
-        <v>0.1156769296453288</v>
+        <v>0.1546620868392165</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H11">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I11">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J11">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N11">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q11">
-        <v>154024.7579039618</v>
+        <v>157600.4418483441</v>
       </c>
       <c r="R11">
-        <v>154024.7579039618</v>
+        <v>1418403.976635096</v>
       </c>
       <c r="S11">
-        <v>0.1108925558509643</v>
+        <v>0.1006047313775313</v>
       </c>
       <c r="T11">
-        <v>0.1108925558509643</v>
+        <v>0.1006047313775313</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H12">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I12">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J12">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N12">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O12">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P12">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q12">
-        <v>686023.2885438463</v>
+        <v>709061.6033471639</v>
       </c>
       <c r="R12">
-        <v>686023.2885438463</v>
+        <v>6381554.430124476</v>
       </c>
       <c r="S12">
-        <v>0.4939132959867739</v>
+        <v>0.4526316760171735</v>
       </c>
       <c r="T12">
-        <v>0.4939132959867739</v>
+        <v>0.4526316760171736</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H13">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I13">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J13">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N13">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O13">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P13">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q13">
-        <v>56176.12288646935</v>
+        <v>59118.45880434216</v>
       </c>
       <c r="R13">
-        <v>56176.12288646935</v>
+        <v>532066.1292390794</v>
       </c>
       <c r="S13">
-        <v>0.04044488645495999</v>
+        <v>0.03773845173091426</v>
       </c>
       <c r="T13">
-        <v>0.04044488645495999</v>
+        <v>0.03773845173091427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H14">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I14">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J14">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N14">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q14">
-        <v>5.409328561883292</v>
+        <v>8.835257377248555</v>
       </c>
       <c r="R14">
-        <v>5.409328561883292</v>
+        <v>79.51731639523699</v>
       </c>
       <c r="S14">
-        <v>3.894531488495396E-06</v>
+        <v>5.640013978798258E-06</v>
       </c>
       <c r="T14">
-        <v>3.894531488495396E-06</v>
+        <v>5.640013978798259E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H15">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I15">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J15">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N15">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q15">
-        <v>107.2350349431343</v>
+        <v>141.4882112623148</v>
       </c>
       <c r="R15">
-        <v>107.2350349431343</v>
+        <v>1273.393901360833</v>
       </c>
       <c r="S15">
-        <v>7.720555619393543E-05</v>
+        <v>9.031943895709413E-05</v>
       </c>
       <c r="T15">
-        <v>7.720555619393543E-05</v>
+        <v>9.031943895709416E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H16">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I16">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J16">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N16">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q16">
-        <v>99.27120172604749</v>
+        <v>192.2498484393527</v>
       </c>
       <c r="R16">
-        <v>99.27120172604749</v>
+        <v>1730.248635954174</v>
       </c>
       <c r="S16">
-        <v>7.147186875412649E-05</v>
+        <v>0.0001227232876556519</v>
       </c>
       <c r="T16">
-        <v>7.147186875412649E-05</v>
+        <v>0.000122723287655652</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H17">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I17">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J17">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N17">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q17">
-        <v>95.16536543242006</v>
+        <v>125.0548518701868</v>
       </c>
       <c r="R17">
-        <v>95.16536543242006</v>
+        <v>1125.493666831681</v>
       </c>
       <c r="S17">
-        <v>6.851580710077923E-05</v>
+        <v>7.982915296623133E-05</v>
       </c>
       <c r="T17">
-        <v>6.851580710077923E-05</v>
+        <v>7.982915296623135E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H18">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I18">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J18">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N18">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O18">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P18">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q18">
-        <v>423.8646944677095</v>
+        <v>562.6354389205566</v>
       </c>
       <c r="R18">
-        <v>423.8646944677095</v>
+        <v>5063.718950285009</v>
       </c>
       <c r="S18">
-        <v>0.0003051680778087649</v>
+        <v>0.0003591600793261148</v>
       </c>
       <c r="T18">
-        <v>0.0003051680778087649</v>
+        <v>0.0003591600793261149</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H19">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I19">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J19">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N19">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O19">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P19">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q19">
-        <v>34.70884379770146</v>
+        <v>46.91008490753433</v>
       </c>
       <c r="R19">
-        <v>34.70884379770146</v>
+        <v>422.190764167809</v>
       </c>
       <c r="S19">
-        <v>2.498917999766583E-05</v>
+        <v>2.994519834887927E-05</v>
       </c>
       <c r="T19">
-        <v>2.498917999766583E-05</v>
+        <v>2.994519834887927E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H20">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I20">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J20">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N20">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O20">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P20">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q20">
-        <v>13.73432392050116</v>
+        <v>18.61764870239611</v>
       </c>
       <c r="R20">
-        <v>13.73432392050116</v>
+        <v>167.558838321565</v>
       </c>
       <c r="S20">
-        <v>9.888243313318877E-06</v>
+        <v>1.188463385393412E-05</v>
       </c>
       <c r="T20">
-        <v>9.888243313318877E-06</v>
+        <v>1.188463385393412E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H21">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I21">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J21">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N21">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P21">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q21">
-        <v>272.2705209502935</v>
+        <v>298.1438684056206</v>
       </c>
       <c r="R21">
-        <v>272.2705209502935</v>
+        <v>2683.294815650585</v>
       </c>
       <c r="S21">
-        <v>0.0001960254595555183</v>
+        <v>0.000190321064084762</v>
       </c>
       <c r="T21">
-        <v>0.0001960254595555183</v>
+        <v>0.000190321064084762</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H22">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I22">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J22">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N22">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O22">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P22">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q22">
-        <v>252.0502914336313</v>
+        <v>405.1087578444034</v>
       </c>
       <c r="R22">
-        <v>252.0502914336313</v>
+        <v>3645.97882059963</v>
       </c>
       <c r="S22">
-        <v>0.0001814675861232881</v>
+        <v>0.0002586024333665267</v>
       </c>
       <c r="T22">
-        <v>0.0001814675861232881</v>
+        <v>0.0002586024333665268</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H23">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I23">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J23">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N23">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O23">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P23">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q23">
-        <v>241.6255437082692</v>
+        <v>263.5155039902605</v>
       </c>
       <c r="R23">
-        <v>241.6255437082692</v>
+        <v>2371.639535912345</v>
       </c>
       <c r="S23">
-        <v>0.0001739621244358382</v>
+        <v>0.0001682159401447991</v>
       </c>
       <c r="T23">
-        <v>0.0001739621244358382</v>
+        <v>0.0001682159401447991</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H24">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I24">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J24">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N24">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O24">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P24">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q24">
-        <v>1076.195491859157</v>
+        <v>1185.585037546856</v>
       </c>
       <c r="R24">
-        <v>1076.195491859157</v>
+        <v>10670.26533792171</v>
       </c>
       <c r="S24">
-        <v>0.0007748239329287583</v>
+        <v>0.0007568218897660093</v>
       </c>
       <c r="T24">
-        <v>0.0007748239329287583</v>
+        <v>0.0007568218897660094</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H25">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I25">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J25">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N25">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O25">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P25">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q25">
-        <v>88.12600273216574</v>
+        <v>98.84890095641168</v>
       </c>
       <c r="R25">
-        <v>88.12600273216574</v>
+        <v>889.6401086077051</v>
       </c>
       <c r="S25">
-        <v>6.344770680303439E-05</v>
+        <v>6.310050283522401E-05</v>
       </c>
       <c r="T25">
-        <v>6.344770680303439E-05</v>
+        <v>6.310050283522402E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H26">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I26">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J26">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N26">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O26">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P26">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q26">
-        <v>0.9504773298787468</v>
+        <v>2.622591468667889</v>
       </c>
       <c r="R26">
-        <v>0.9504773298787468</v>
+        <v>23.603323218011</v>
       </c>
       <c r="S26">
-        <v>6.843111576541113E-07</v>
+        <v>1.674139406742472E-06</v>
       </c>
       <c r="T26">
-        <v>6.843111576541113E-07</v>
+        <v>1.674139406742473E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H27">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I27">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J27">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N27">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P27">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q27">
-        <v>18.84235141500051</v>
+        <v>41.99829840035544</v>
       </c>
       <c r="R27">
-        <v>18.84235141500051</v>
+        <v>377.984685603199</v>
       </c>
       <c r="S27">
-        <v>1.356584834208459E-05</v>
+        <v>2.680974418172646E-05</v>
       </c>
       <c r="T27">
-        <v>1.356584834208459E-05</v>
+        <v>2.680974418172647E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H28">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I28">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J28">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N28">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O28">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P28">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q28">
-        <v>17.44302008483984</v>
+        <v>57.06600168412466</v>
       </c>
       <c r="R28">
-        <v>17.44302008483984</v>
+        <v>513.594015157122</v>
       </c>
       <c r="S28">
-        <v>1.255837766142556E-05</v>
+        <v>3.642825935567916E-05</v>
       </c>
       <c r="T28">
-        <v>1.255837766142556E-05</v>
+        <v>3.642825935567917E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H29">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I29">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J29">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N29">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O29">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P29">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q29">
-        <v>16.72158039548816</v>
+        <v>37.12034337277144</v>
       </c>
       <c r="R29">
-        <v>16.72158039548816</v>
+        <v>334.083090354943</v>
       </c>
       <c r="S29">
-        <v>1.203896576860235E-05</v>
+        <v>2.369588644461426E-05</v>
       </c>
       <c r="T29">
-        <v>1.203896576860235E-05</v>
+        <v>2.369588644461427E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H30">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I30">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J30">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N30">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O30">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P30">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q30">
-        <v>74.47759521697019</v>
+        <v>167.0084796717919</v>
       </c>
       <c r="R30">
-        <v>74.47759521697019</v>
+        <v>1503.076317046127</v>
       </c>
       <c r="S30">
-        <v>5.362132036197111E-05</v>
+        <v>0.0001066103815325506</v>
       </c>
       <c r="T30">
-        <v>5.362132036197111E-05</v>
+        <v>0.0001066103815325506</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H31">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I31">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J31">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N31">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O31">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P31">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q31">
-        <v>6.098717945972227</v>
+        <v>13.92443742383633</v>
       </c>
       <c r="R31">
-        <v>6.098717945972227</v>
+        <v>125.319936814527</v>
       </c>
       <c r="S31">
-        <v>4.390868258106236E-06</v>
+        <v>8.888707862610713E-06</v>
       </c>
       <c r="T31">
-        <v>4.390868258106236E-06</v>
+        <v>8.888707862610713E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H32">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I32">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J32">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N32">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O32">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P32">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q32">
-        <v>1015.713951032537</v>
+        <v>1593.171973979547</v>
       </c>
       <c r="R32">
-        <v>1015.713951032537</v>
+        <v>14338.54776581593</v>
       </c>
       <c r="S32">
-        <v>0.0007312792928634885</v>
+        <v>0.00101700627612871</v>
       </c>
       <c r="T32">
-        <v>0.0007312792928634885</v>
+        <v>0.00101700627612871</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H33">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I33">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J33">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N33">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P33">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q33">
-        <v>20135.6082894846</v>
+        <v>25513.12805126399</v>
       </c>
       <c r="R33">
-        <v>20135.6082894846</v>
+        <v>229618.1524613759</v>
       </c>
       <c r="S33">
-        <v>0.01449694904391326</v>
+        <v>0.0162863845056215</v>
       </c>
       <c r="T33">
-        <v>0.01449694904391326</v>
+        <v>0.0162863845056215</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H34">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I34">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J34">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N34">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O34">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P34">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q34">
-        <v>18640.23295597461</v>
+        <v>34666.45706599383</v>
       </c>
       <c r="R34">
-        <v>18640.23295597461</v>
+        <v>311998.1135939445</v>
       </c>
       <c r="S34">
-        <v>0.01342032996691521</v>
+        <v>0.02212944050176643</v>
       </c>
       <c r="T34">
-        <v>0.01342032996691521</v>
+        <v>0.02212944050176644</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H35">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I35">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J35">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N35">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O35">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P35">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q35">
-        <v>17869.27679082697</v>
+        <v>22549.86772912665</v>
       </c>
       <c r="R35">
-        <v>17869.27679082697</v>
+        <v>202948.8095621398</v>
       </c>
       <c r="S35">
-        <v>0.01286526790568746</v>
+        <v>0.01439477807854562</v>
       </c>
       <c r="T35">
-        <v>0.01286526790568746</v>
+        <v>0.01439477807854563</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H36">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I36">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J36">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N36">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O36">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P36">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q36">
-        <v>79589.41273315928</v>
+        <v>101454.3181463105</v>
       </c>
       <c r="R36">
-        <v>79589.41273315928</v>
+        <v>913088.8633167947</v>
       </c>
       <c r="S36">
-        <v>0.05730165407668071</v>
+        <v>0.06476367898779094</v>
       </c>
       <c r="T36">
-        <v>0.05730165407668071</v>
+        <v>0.06476367898779095</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H37">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I37">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J37">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N37">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O37">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P37">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q37">
-        <v>6517.307363792394</v>
+        <v>8458.817822798799</v>
       </c>
       <c r="R37">
-        <v>6517.307363792394</v>
+        <v>76129.36040518919</v>
       </c>
       <c r="S37">
-        <v>0.004692238317218346</v>
+        <v>0.0053997126204319</v>
       </c>
       <c r="T37">
-        <v>0.004692238317218346</v>
+        <v>0.0053997126204319</v>
       </c>
     </row>
   </sheetData>
